--- a/3. Requirement/Complete/Business Rules_v0.2.xlsx
+++ b/3. Requirement/Complete/Business Rules_v0.2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Khang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\3. Requirement\Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách" sheetId="4" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Quản trị bộ từ điển (android)" sheetId="6" r:id="rId5"/>
     <sheet name="Hiển thị bộ từ điển (android)" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Người dùng có thể cấu hình mail server trên công cụ quản trị</t>
   </si>
   <si>
-    <t>Người dùng loại câu hỏi ra khỏi bộ từ điển thì sẽ tự động trở về danh sách ban đầu nó được đưa vào bộ từ điển</t>
-  </si>
-  <si>
     <t>Người dùng trả lời câu hỏi khi được người quản trị thay đổi thì sẽ mất quyền quản lý câu hỏi đó</t>
   </si>
   <si>
@@ -210,13 +207,70 @@
   </si>
   <si>
     <t>Tìm kiếm trả về kết quả của người dùng,không trả về kết quả của người khác</t>
+  </si>
+  <si>
+    <t>Người dùng loại câu hỏi ra khỏi bộ từ điển thì sẽ tự động trở về danh sách đã hạ trong bộ từ điển</t>
+  </si>
+  <si>
+    <t>BR.03.02</t>
+  </si>
+  <si>
+    <t>BR.03.03</t>
+  </si>
+  <si>
+    <t>BR.03.04</t>
+  </si>
+  <si>
+    <t>BR.03.05</t>
+  </si>
+  <si>
+    <t>Mặc định một trang hiển thị là 10 record</t>
+  </si>
+  <si>
+    <t>Từ khóa tìm kiếm phải được giữ nguyên sau khi tìm kiếm.</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo tiêu đề và nội dung.</t>
+  </si>
+  <si>
+    <t>Khi gửi câu hỏi đi phải hiển thị thông báo đến người dùng.</t>
+  </si>
+  <si>
+    <t>Ràng buộc email, họ tên, tiêu đề câu hỏi, nội dung câu hỏi..</t>
+  </si>
+  <si>
+    <t>BR.05.02</t>
+  </si>
+  <si>
+    <t>BR.05.03</t>
+  </si>
+  <si>
+    <t>BR.05.04</t>
+  </si>
+  <si>
+    <t>BR.05.05</t>
+  </si>
+  <si>
+    <t>Ràng buộc email, họ tên, nội dung câu hỏi..</t>
+  </si>
+  <si>
+    <t>BR.05.06</t>
+  </si>
+  <si>
+    <t>BR.05.07</t>
+  </si>
+  <si>
+    <t>Khi gửi câu hỏi,gửi luôn không cần xác nhận</t>
+  </si>
+  <si>
+    <t>Trong quá trình gửi câu hỏi gặp lỗi,phải thông báo đến cho người dùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,8 +294,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +326,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -273,13 +345,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -661,7 +743,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,16 +849,16 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
@@ -784,7 +866,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
@@ -792,42 +874,42 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +923,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,10 +971,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B25:B26"/>
+      <selection activeCell="B6" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,13 +991,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -953,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,9 +1091,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
